--- a/biology/Zoologie/Cyrtogrammomma/Cyrtogrammomma.xlsx
+++ b/biology/Zoologie/Cyrtogrammomma/Cyrtogrammomma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtogrammomma est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtogrammomma est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Guyana et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Guyana et au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 01/08/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 01/08/2022) :
 Cyrtogrammomma frevo Gonzalez-Filho, Fonseca-Ferreira, Brescovit &amp; Guadanucci, 2022
 Cyrtogrammomma monticola Pocock, 1895
 Cyrtogrammomma raveni Mori &amp; Bertani, 2020</t>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1895 dans les Theraphosidae. Il est placé dans les Barychelidae par Raven en 1985[3] puis dans les Theraphosidae par Mori et Bertani en 2020[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1895 dans les Theraphosidae. Il est placé dans les Barychelidae par Raven en 1985 puis dans les Theraphosidae par Mori et Bertani en 2020.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1895 : « Description of two new spiders obtained by Messrs J. J. Quelch and F. MacConnel on the summit of Mount Roraima, in Demerara; with a note upon the systematic position of the genus Desis. » Annals and Magazine of Natural History, sér. 6, vol. 16, p. 139-143 (texte intégral).</t>
         </is>
